--- a/FaceOculta/ES2N-Matriz de Rastreabilidade v1.0.xlsx
+++ b/FaceOculta/ES2N-Matriz de Rastreabilidade v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_b\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ES2N\FaceOculta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A72C20-D7AF-4EB1-9613-5CC0BA2411AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B899B11-D8AA-4022-8415-36B09D431E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Rastreabilidade" sheetId="2" r:id="rId1"/>
@@ -666,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="68" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -932,7 +932,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -1004,7 +1004,7 @@
         <v>75</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -1028,7 +1028,7 @@
         <v>76</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -1078,7 +1078,7 @@
         <v>79</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -1121,6 +1121,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100293BF6651F79E14394D70E64EC03F0DA" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="3e1d0e2269e17e82cdb9a0f96b9ea8a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="50b989ab-a22e-489c-a9cf-b873b7e416f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a87666416b61979e3eacb4339db37a04" ns2:_="">
     <xsd:import namespace="50b989ab-a22e-489c-a9cf-b873b7e416f7"/>
@@ -1264,12 +1270,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C1C85F-E623-4E41-9799-B20F91221489}">
   <ds:schemaRefs>
@@ -1279,6 +1279,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA257387-3F77-469F-84E0-60B50C987666}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0346F82-2AE6-49FC-B84F-58A9BBC61381}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1294,13 +1303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA257387-3F77-469F-84E0-60B50C987666}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>